--- a/tests/bin/sample_COUNTER_R4_reports/sample_JR1_reports.xlsx
+++ b/tests/bin/sample_COUNTER_R4_reports/sample_JR1_reports.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ereiskind\nolcat\tests\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ereiskind\nolcat\tests\bin\sample_COUNTER_R4_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="EBSCO 16-17" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="EBSCO 18-19" sheetId="7" r:id="rId7"/>
     <sheet name="PQ 18-19" sheetId="9" r:id="rId8"/>
     <sheet name="Gale 18-19" sheetId="12" r:id="rId9"/>
+    <sheet name="Duke 18-19" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EBSCO 16-17'!$A$8:$V$8</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="142">
   <si>
     <t/>
   </si>
@@ -415,13 +416,64 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2019-09-05</t>
+  </si>
+  <si>
+    <t>Silverchair</t>
+  </si>
+  <si>
+    <t>Camera Obscura: Feminism, Culture, and Media Studies</t>
+  </si>
+  <si>
+    <t>Duke University Press</t>
+  </si>
+  <si>
+    <t>0270-5346</t>
+  </si>
+  <si>
+    <t>1529-1510</t>
+  </si>
+  <si>
+    <t>Environmental Humanities</t>
+  </si>
+  <si>
+    <t>2201-1919</t>
+  </si>
+  <si>
+    <t>Journal of Health Politics, Policy and Law</t>
+  </si>
+  <si>
+    <t>0361-6878</t>
+  </si>
+  <si>
+    <t>1527-1927</t>
+  </si>
+  <si>
+    <t>Journal of Korean Studies</t>
+  </si>
+  <si>
+    <t>2158-1665</t>
+  </si>
+  <si>
+    <t>0731-1613</t>
+  </si>
+  <si>
+    <t>the minnesota review</t>
+  </si>
+  <si>
+    <t>0026-5667</t>
+  </si>
+  <si>
+    <t>2157-4189</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,13 +488,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF578FAE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD2DE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -454,10 +536,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -467,9 +550,26 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1533,6 +1633,453 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="36" style="6" customWidth="1"/>
+    <col min="3" max="10" width="10.7109375" style="6" customWidth="1"/>
+    <col min="11" max="22" width="5.42578125" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2</v>
+      </c>
+      <c r="O10" s="10">
+        <v>6</v>
+      </c>
+      <c r="P10" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>6</v>
+      </c>
+      <c r="S10" s="10">
+        <v>6</v>
+      </c>
+      <c r="T10" s="10">
+        <v>4</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2</v>
+      </c>
+      <c r="N11" s="10">
+        <v>4</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>8</v>
+      </c>
+      <c r="T11" s="10">
+        <v>4</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10">
+        <v>6</v>
+      </c>
+      <c r="L12" s="10">
+        <v>6</v>
+      </c>
+      <c r="M12" s="10">
+        <v>36</v>
+      </c>
+      <c r="N12" s="10">
+        <v>16</v>
+      </c>
+      <c r="O12" s="10">
+        <v>8</v>
+      </c>
+      <c r="P12" s="10">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>6</v>
+      </c>
+      <c r="R12" s="10">
+        <v>18</v>
+      </c>
+      <c r="S12" s="10">
+        <v>16</v>
+      </c>
+      <c r="T12" s="10">
+        <v>18</v>
+      </c>
+      <c r="U12" s="10">
+        <v>14</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>4</v>
+      </c>
+      <c r="O14" s="10">
+        <v>6</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" useFirstPageNumber="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
@@ -4653,7 +5200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
